--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_49.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_49.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1910"/>
+  <dimension ref="A1:N1911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.639947891235352</v>
+        <v>0.001857995986938477</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07015895843505859</v>
+        <v>0.0008718967437744141</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1168577671051025</v>
+        <v>0.1226060390472412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 0), (4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (5, 5), (6, 4), (4, 4), (5, 6), (3, 5), (3, 3), (1, 5), (3, 6), (5, 1), (2, 4), (1, 3), (0, 5), (2, 2), (2, 3), (1, 4), (2, 0), (2, 5), (0, 4), (3, 4), (2, 6), (4, 6), (4, 5), (6, 5), (5, 4), (4, 3), (5, 3), (6, 2), (6, 6), (0, 6), (1, 6), (3, 2), (3, 1), (5, 0), (6, 1), (6, 0), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 0], [4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [5, 5], [6, 4], [4, 4], [5, 6], [3, 5], [3, 3], [1, 5], [3, 6], [5, 1], [2, 4], [1, 3], [0, 5], [2, 2], [2, 3], [1, 4], [2, 0], [2, 5], [0, 4], [3, 4], [2, 6], [4, 6], [4, 5], [6, 5], [5, 4], [4, 3], [5, 3], [6, 2], [6, 6], [0, 6], [1, 6], [3, 2], [3, 1], [5, 0], [6, 1], [6, 0], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (5, 5), (4, 2), (4, 4), (6, 4), (3, 5), (5, 6), (1, 5), (3, 3), (0, 4), (3, 6), (5, 1), (2, 4), (1, 4), (0, 5), (2, 3), (0, 0), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (4, 3), (6, 6), (5, 4), (6, 5), (5, 3), (5, 0), (6, 2), (6, 0), (0, 6), (1, 6), (6, 1), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [5, 5], [4, 2], [4, 4], [6, 4], [3, 5], [5, 6], [1, 5], [3, 3], [0, 4], [3, 6], [5, 1], [2, 4], [1, 4], [0, 5], [2, 3], [0, 0], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [4, 3], [6, 6], [5, 4], [6, 5], [5, 3], [5, 0], [6, 2], [6, 0], [0, 6], [1, 6], [6, 1], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (5, 5), (4, 2), (4, 4), (6, 4), (3, 5), (5, 6), (3, 0), (3, 3), (2, 2), (2, 3), (5, 1), (2, 0), (3, 4), (2, 1), (3, 2), (3, 1), (4, 5), (4, 6), (4, 3), (5, 4), (6, 6), (5, 3), (6, 5), (5, 0), (6, 1), (6, 2), (6, 0), (2, 4), (3, 6), (2, 5), (0, 6), (1, 5), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (0, 5), (1, 6), (2, 6)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [5, 5], [4, 2], [4, 4], [6, 4], [3, 5], [5, 6], [3, 0], [3, 3], [2, 2], [2, 3], [5, 1], [2, 0], [3, 4], [2, 1], [3, 2], [3, 1], [4, 5], [4, 6], [4, 3], [5, 4], [6, 6], [5, 3], [6, 5], [5, 0], [6, 1], [6, 2], [6, 0], [2, 4], [3, 6], [2, 5], [0, 6], [1, 5], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [0, 5], [1, 6], [2, 6]]</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (3, 0), (4, 2), (1, 5), (6, 4), (0, 6), (3, 6), (3, 1), (0, 5), (2, 0), (0, 3), (5, 1), (5, 3), (1, 4), (0, 4), (2, 5), (5, 0), (1, 6), (6, 6), (6, 1), (6, 5), (6, 2), (6, 0), (2, 6), (5, 6), (5, 5), (4, 5), (4, 4), (3, 4), (3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (4, 3), (3, 5), (5, 4), (4, 6)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [3, 0], [4, 2], [1, 5], [6, 4], [0, 6], [3, 6], [3, 1], [0, 5], [2, 0], [0, 3], [5, 1], [5, 3], [1, 4], [0, 4], [2, 5], [5, 0], [1, 6], [6, 6], [6, 1], [6, 5], [6, 2], [6, 0], [2, 6], [5, 6], [5, 5], [4, 5], [4, 4], [3, 4], [3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [4, 3], [3, 5], [5, 4], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (3, 0), (4, 2), (0, 6), (6, 4), (1, 6), (3, 2), (3, 1), (3, 3), (5, 0), (4, 3), (5, 1), (5, 3), (5, 4), (6, 2), (6, 5), (6, 0), (6, 6), (6, 1), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [3, 0], [4, 2], [0, 6], [6, 4], [1, 6], [3, 2], [3, 1], [3, 3], [5, 0], [4, 3], [5, 1], [5, 3], [5, 4], [6, 2], [6, 5], [6, 0], [6, 6], [6, 1], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (3, 0), (4, 1), (3, 2), (4, 2), (0, 6), (5, 3), (1, 6), (3, 1), (3, 3), (4, 3), (5, 0), (5, 1), (6, 1), (6, 2), (6, 6), (6, 0), (6, 4), (6, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5)]</t>
+          <t>[[5, 2], [4, 0], [3, 0], [4, 1], [3, 2], [4, 2], [0, 6], [5, 3], [1, 6], [3, 1], [3, 3], [4, 3], [5, 0], [5, 1], [6, 1], [6, 2], [6, 6], [6, 0], [6, 4], [6, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5]]</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5033,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (3, 0), (4, 1), (3, 2), (3, 1), (0, 6), (3, 3), (1, 6), (4, 3), (5, 0), (6, 1), (6, 0), (6, 6), (5, 1), (4, 2), (6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2)]</t>
+          <t>[[5, 2], [4, 0], [3, 0], [4, 1], [3, 2], [3, 1], [0, 6], [3, 3], [1, 6], [4, 3], [5, 0], [6, 1], [6, 0], [6, 6], [5, 1], [4, 2], [6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2]]</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>[(4, 1), (4, 0), (5, 1), (3, 1), (5, 0), (6, 0), (0, 6), (1, 6), (6, 6), (6, 1), (3, 0), (3, 3), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2)]</t>
+          <t>[[4, 1], [4, 0], [5, 1], [3, 1], [5, 0], [6, 0], [0, 6], [1, 6], [6, 6], [6, 1], [3, 0], [3, 3], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>[(5, 1), (0, 6), (6, 0), (3, 3), (6, 1), (6, 6), (1, 6), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1)]</t>
+          <t>[[5, 1], [0, 6], [6, 0], [3, 3], [6, 1], [6, 6], [1, 6], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -8576,7 +8576,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>[(5, 1), (0, 6), (6, 0), (3, 3), (6, 1), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (6, 6), (1, 6)]</t>
+          <t>[[5, 1], [0, 6], [6, 0], [3, 3], [6, 1], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [6, 6], [1, 6]]</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>[(5, 1), (0, 6), (6, 0), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (6, 1), (3, 3), (6, 6), (1, 6)]</t>
+          <t>[[5, 1], [0, 6], [6, 0], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [6, 1], [3, 3], [6, 6], [1, 6]]</t>
         </is>
       </c>
     </row>
@@ -11075,7 +11075,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>[(5, 1), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (6, 0), (3, 3), (6, 1), (0, 6), (6, 6), (1, 6)]</t>
+          <t>[[5, 1], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [6, 0], [3, 3], [6, 1], [0, 6], [6, 6], [1, 6]]</t>
         </is>
       </c>
     </row>
@@ -12322,7 +12322,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>[(3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (4, 0), (3, 3), (6, 0), (5, 1), (6, 1), (0, 6), (6, 6), (1, 6)]</t>
+          <t>[[3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [4, 0], [3, 3], [6, 0], [5, 1], [6, 1], [0, 6], [6, 6], [1, 6]]</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (4, 1), (3, 3), (5, 0), (3, 1), (4, 0), (3, 0), (6, 0), (5, 1), (6, 1), (0, 6), (6, 6), (1, 6)]</t>
+          <t>[[5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [4, 1], [3, 3], [5, 0], [3, 1], [4, 0], [3, 0], [6, 0], [5, 1], [6, 1], [0, 6], [6, 6], [1, 6]]</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>[(6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (6, 6), (5, 0), (4, 3), (3, 2), (4, 1), (3, 3), (3, 0), (3, 1), (4, 0), (4, 2), (6, 0), (5, 1), (6, 1), (0, 6), (1, 6), (5, 2)]</t>
+          <t>[[6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [6, 6], [5, 0], [4, 3], [3, 2], [4, 1], [3, 3], [3, 0], [3, 1], [4, 0], [4, 2], [6, 0], [5, 1], [6, 1], [0, 6], [1, 6], [5, 2]]</t>
         </is>
       </c>
     </row>
@@ -15672,7 +15672,7 @@
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>[(5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (6, 6), (6, 3), (5, 3), (6, 2), (3, 3), (5, 0), (4, 3), (3, 2), (4, 1), (3, 1), (3, 0), (4, 0), (4, 2), (5, 1), (6, 0), (5, 2), (6, 1), (0, 6), (1, 6), (6, 4)]</t>
+          <t>[[5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [6, 6], [6, 3], [5, 3], [6, 2], [3, 3], [5, 0], [4, 3], [3, 2], [4, 1], [3, 1], [3, 0], [4, 0], [4, 2], [5, 1], [6, 0], [5, 2], [6, 1], [0, 6], [1, 6], [6, 4]]</t>
         </is>
       </c>
     </row>
@@ -16595,7 +16595,7 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>[(4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (4, 3), (4, 2), (5, 4), (6, 5), (6, 6), (6, 3), (5, 3), (6, 2), (3, 3), (5, 0), (3, 2), (4, 1), (3, 0), (3, 1), (4, 0), (5, 1), (5, 2), (6, 0), (6, 1), (5, 5), (6, 4), (0, 6), (1, 6), (5, 6)]</t>
+          <t>[[4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [4, 3], [4, 2], [5, 4], [6, 5], [6, 6], [6, 3], [5, 3], [6, 2], [3, 3], [5, 0], [3, 2], [4, 1], [3, 0], [3, 1], [4, 0], [5, 1], [5, 2], [6, 0], [6, 1], [5, 5], [6, 4], [0, 6], [1, 6], [5, 6]]</t>
         </is>
       </c>
     </row>
@@ -17472,7 +17472,7 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>[(2, 5), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (3, 4), (3, 3), (3, 0), (4, 6), (3, 1), (4, 2), (3, 2), (3, 6), (3, 5), (6, 3), (5, 3), (6, 2), (4, 3), (5, 0), (4, 1), (4, 0), (5, 1), (4, 4), (6, 0), (5, 2), (5, 4), (6, 1), (6, 4), (5, 5), (6, 5), (4, 5), (5, 6), (6, 6)]</t>
+          <t>[[2, 5], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [3, 4], [3, 3], [3, 0], [4, 6], [3, 1], [4, 2], [3, 2], [3, 6], [3, 5], [6, 3], [5, 3], [6, 2], [4, 3], [5, 0], [4, 1], [4, 0], [5, 1], [4, 4], [6, 0], [5, 2], [5, 4], [6, 1], [6, 4], [5, 5], [6, 5], [4, 5], [5, 6], [6, 6]]</t>
         </is>
       </c>
     </row>
@@ -18334,7 +18334,7 @@
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>[(6, 3), (6, 2), (5, 1), (4, 1), (3, 2), (2, 2), (1, 1), (0, 1), (0, 2), (1, 2), (2, 1), (3, 1), (4, 2), (5, 2), (6, 1), (5, 3), (6, 4), (4, 3), (0, 3), (0, 0), (1, 6), (3, 4), (1, 3), (3, 0), (4, 6), (2, 0), (4, 0), (1, 4), (3, 6), (1, 0), (0, 4), (2, 3), (4, 4), (3, 3), (5, 0), (1, 5), (6, 0), (5, 4), (2, 4), (0, 5), (4, 5), (5, 5), (6, 5), (6, 6), (3, 5), (5, 6), (2, 5), (2, 6), (0, 6)]</t>
+          <t>[[6, 3], [6, 2], [5, 1], [4, 1], [3, 2], [2, 2], [1, 1], [0, 1], [0, 2], [1, 2], [2, 1], [3, 1], [4, 2], [5, 2], [6, 1], [5, 3], [6, 4], [4, 3], [0, 3], [0, 0], [1, 6], [3, 4], [1, 3], [3, 0], [4, 6], [2, 0], [4, 0], [1, 4], [3, 6], [1, 0], [0, 4], [2, 3], [4, 4], [3, 3], [5, 0], [1, 5], [6, 0], [5, 4], [2, 4], [0, 5], [4, 5], [5, 5], [6, 5], [6, 6], [3, 5], [5, 6], [2, 5], [2, 6], [0, 6]]</t>
         </is>
       </c>
     </row>
@@ -19164,7 +19164,7 @@
     <row r="1766">
       <c r="A1766" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1), (3, 0), (4, 0), (0, 6), (0, 4), (5, 3), (6, 4), (4, 3), (1, 4), (2, 3), (1, 6), (3, 4), (2, 4), (5, 0), (4, 6), (4, 2), (5, 1), (2, 5), (3, 6), (5, 2), (2, 6), (3, 5), (4, 4), (4, 5), (0, 5), (1, 5), (4, 1), (3, 2), (3, 3), (0, 0), (5, 4), (5, 5), (6, 5), (6, 6), (5, 6), (6, 3), (6, 1), (6, 2), (6, 0)]</t>
+          <t>[[2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1], [3, 0], [4, 0], [0, 6], [0, 4], [5, 3], [6, 4], [4, 3], [1, 4], [2, 3], [1, 6], [3, 4], [2, 4], [5, 0], [4, 6], [4, 2], [5, 1], [2, 5], [3, 6], [5, 2], [2, 6], [3, 5], [4, 4], [4, 5], [0, 5], [1, 5], [4, 1], [3, 2], [3, 3], [0, 0], [5, 4], [5, 5], [6, 5], [6, 6], [5, 6], [6, 3], [6, 1], [6, 2], [6, 0]]</t>
         </is>
       </c>
     </row>
@@ -19866,7 +19866,7 @@
     <row r="1847">
       <c r="A1847" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 2), (1, 1), (1, 0), (0, 1), (2, 2), (2, 3), (2, 0), (0, 6), (0, 4), (3, 3), (4, 0), (4, 1), (1, 6), (2, 4), (5, 3), (6, 4), (4, 3), (2, 5), (3, 4), (2, 6), (3, 5), (4, 4), (5, 0), (4, 6), (4, 2), (5, 1), (3, 6), (4, 5), (5, 2), (5, 5), (5, 4), (5, 6), (6, 5), (6, 3), (6, 6), (6, 1), (6, 2), (6, 0), (0, 5), (1, 5), (0, 0), (0, 3), (1, 3), (0, 2), (3, 0), (3, 1), (1, 4), (3, 2)]</t>
+          <t>[[2, 1], [1, 2], [1, 1], [1, 0], [0, 1], [2, 2], [2, 3], [2, 0], [0, 6], [0, 4], [3, 3], [4, 0], [4, 1], [1, 6], [2, 4], [5, 3], [6, 4], [4, 3], [2, 5], [3, 4], [2, 6], [3, 5], [4, 4], [5, 0], [4, 6], [4, 2], [5, 1], [3, 6], [4, 5], [5, 2], [5, 5], [5, 4], [5, 6], [6, 5], [6, 3], [6, 6], [6, 1], [6, 2], [6, 0], [0, 5], [1, 5], [0, 0], [0, 3], [1, 3], [0, 2], [3, 0], [3, 1], [1, 4], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -20305,110 +20305,120 @@
     <row r="1906">
       <c r="A1906" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1906" t="n">
-        <v>318</v>
+        <v>0.9795924684724792</v>
       </c>
     </row>
     <row r="1907">
       <c r="A1907" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1907" t="n">
-        <v>1557</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1908">
       <c r="A1908" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1908" t="n">
-        <v>21</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1909">
       <c r="A1909" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1909" t="n">
-        <v>8.125733852386475</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1910">
       <c r="A1910" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1910" t="n">
+        <v>0.4429991245269775</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1910" t="inlineStr">
+      <c r="B1911" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1910" t="inlineStr">
+      <c r="C1911" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1910" t="inlineStr">
+      <c r="D1911" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1910" t="inlineStr">
+      <c r="E1911" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1910" t="inlineStr">
+      <c r="F1911" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1910" t="inlineStr">
+      <c r="G1911" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1910" t="inlineStr">
+      <c r="H1911" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1910" t="inlineStr">
+      <c r="I1911" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1910" t="inlineStr">
+      <c r="J1911" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1910" t="inlineStr">
+      <c r="K1911" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1910" t="inlineStr">
+      <c r="L1911" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1910" t="inlineStr">
+      <c r="M1911" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1910" t="inlineStr">
+      <c r="N1911" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
